--- a/data/trans_orig/P05A03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A03-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F9CDABF-2F14-4E29-9A38-953CF1617FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ED837EF-B2A4-4390-B126-3E3B46B7F23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39F4F2F4-76AC-4CC0-A17C-6DB0AEEB4714}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D45FB8B-ADDD-4C49-8D73-98E666DF926C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="407">
   <si>
     <t>Población según si en el barrio donde vive la contaminación es elevada en 2007 (Tasa respuesta: 99,35%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>82,83%</t>
   </si>
   <si>
-    <t>80,36%</t>
+    <t>80,31%</t>
   </si>
   <si>
     <t>85,03%</t>
@@ -86,19 +86,19 @@
     <t>82,77%</t>
   </si>
   <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
   </si>
   <si>
     <t>82,8%</t>
   </si>
   <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,28 +107,28 @@
     <t>14,8%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -137,1153 +137,1129 @@
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
     <t>1,56%</t>
   </si>
   <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,18%)</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2015 (Tasa respuesta: 99,18%)</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079704C2-D8DB-4753-A2E0-C998B163D9A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A42759-9B89-47B5-A5C8-4690344ABC5E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1999,7 +1975,7 @@
         <v>2319</v>
       </c>
       <c r="N7" s="7">
-        <v>2337308</v>
+        <v>2337307</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2315,10 +2291,10 @@
         <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,13 +2309,13 @@
         <v>19666</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -2351,10 +2327,10 @@
         <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -2363,13 +2339,13 @@
         <v>34057</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2413,13 @@
         <v>2684860</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>2703</v>
@@ -2452,13 +2428,13 @@
         <v>2757525</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>5335</v>
@@ -2467,13 +2443,13 @@
         <v>5442386</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2464,13 @@
         <v>475385</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>483</v>
@@ -2503,13 +2479,13 @@
         <v>505726</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>952</v>
@@ -2518,13 +2494,13 @@
         <v>981111</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2515,13 @@
         <v>89789</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -2554,13 +2530,13 @@
         <v>98197</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>182</v>
@@ -2569,13 +2545,13 @@
         <v>187986</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,7 +2607,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +2626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BB924A-F916-49B5-8F99-F1456A476181}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275EFAE9-37A9-4CBA-A73B-E91E59D41F94}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2667,7 +2643,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2774,13 +2750,13 @@
         <v>873774</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>1092</v>
@@ -2789,13 +2765,13 @@
         <v>1174447</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>1906</v>
@@ -2804,13 +2780,13 @@
         <v>2048220</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2801,13 @@
         <v>75286</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>113</v>
@@ -2840,13 +2816,13 @@
         <v>118707</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>182</v>
@@ -2855,13 +2831,13 @@
         <v>193993</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2852,13 @@
         <v>22525</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -2891,13 +2867,13 @@
         <v>25318</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -2906,13 +2882,13 @@
         <v>47843</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2956,13 @@
         <v>1687975</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>1399</v>
@@ -2995,13 +2971,13 @@
         <v>1502447</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>2998</v>
@@ -3010,13 +2986,13 @@
         <v>3190422</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3007,13 @@
         <v>218103</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H9" s="7">
         <v>183</v>
@@ -3046,13 +3022,13 @@
         <v>196379</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="M9" s="7">
         <v>388</v>
@@ -3061,13 +3037,13 @@
         <v>414482</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3058,13 @@
         <v>40230</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -3097,13 +3073,13 @@
         <v>37267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -3112,13 +3088,13 @@
         <v>77497</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3162,13 @@
         <v>413999</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H12" s="7">
         <v>351</v>
@@ -3201,13 +3177,13 @@
         <v>388264</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M12" s="7">
         <v>729</v>
@@ -3216,13 +3192,13 @@
         <v>802263</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3213,13 @@
         <v>47126</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -3252,13 +3228,13 @@
         <v>52824</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -3267,13 +3243,13 @@
         <v>99950</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3264,13 @@
         <v>15868</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -3303,13 +3279,13 @@
         <v>11118</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -3318,13 +3294,13 @@
         <v>26987</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3368,13 @@
         <v>2975748</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>2842</v>
@@ -3407,13 +3383,13 @@
         <v>3065157</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>5633</v>
@@ -3422,13 +3398,13 @@
         <v>6040905</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3419,13 @@
         <v>340515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>340</v>
@@ -3458,13 +3434,13 @@
         <v>367910</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>658</v>
@@ -3473,13 +3449,13 @@
         <v>708425</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3470,13 @@
         <v>78623</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="H18" s="7">
         <v>67</v>
@@ -3509,13 +3485,13 @@
         <v>73704</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -3524,13 +3500,13 @@
         <v>152327</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,7 +3562,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3605,7 +3581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF46B11-992B-4F2C-A08B-B1FC5E61D2A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF91C8E-6A20-41A9-ACB2-85A2589DC860}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3622,7 +3598,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3729,13 +3705,13 @@
         <v>647209</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>749</v>
@@ -3744,13 +3720,13 @@
         <v>833112</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>1402</v>
@@ -3759,13 +3735,13 @@
         <v>1480320</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3756,13 @@
         <v>74094</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -3795,13 +3771,13 @@
         <v>113537</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>178</v>
@@ -3810,13 +3786,13 @@
         <v>187630</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3807,13 @@
         <v>26893</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>121</v>
+        <v>239</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -3846,13 +3822,13 @@
         <v>39192</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M6" s="7">
         <v>60</v>
@@ -3861,13 +3837,13 @@
         <v>66085</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3911,13 @@
         <v>1746093</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>1585</v>
@@ -3950,13 +3926,13 @@
         <v>1645740</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>3232</v>
@@ -3965,13 +3941,13 @@
         <v>3391833</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3962,13 @@
         <v>253106</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>259</v>
+        <v>108</v>
       </c>
       <c r="H9" s="7">
         <v>236</v>
@@ -4001,13 +3977,13 @@
         <v>248875</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M9" s="7">
         <v>470</v>
@@ -4016,13 +3992,13 @@
         <v>501981</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4013,13 @@
         <v>63531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>73</v>
@@ -4052,13 +4028,13 @@
         <v>77163</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>131</v>
@@ -4067,13 +4043,13 @@
         <v>140694</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4117,13 @@
         <v>444660</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H12" s="7">
         <v>436</v>
@@ -4156,13 +4132,13 @@
         <v>453754</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M12" s="7">
         <v>844</v>
@@ -4171,13 +4147,13 @@
         <v>898413</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4168,13 @@
         <v>75396</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -4207,13 +4183,13 @@
         <v>69861</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -4222,13 +4198,13 @@
         <v>145257</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4219,13 @@
         <v>19094</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>118</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -4258,13 +4234,13 @@
         <v>20142</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -4273,13 +4249,13 @@
         <v>39236</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4323,13 @@
         <v>2837962</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
         <v>2770</v>
@@ -4362,13 +4338,13 @@
         <v>2932605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>5478</v>
@@ -4377,13 +4353,13 @@
         <v>5770567</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4374,13 @@
         <v>402596</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>402</v>
@@ -4413,13 +4389,13 @@
         <v>432272</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>783</v>
@@ -4428,13 +4404,13 @@
         <v>834868</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4425,13 @@
         <v>109518</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H18" s="7">
         <v>127</v>
@@ -4464,13 +4440,13 @@
         <v>136497</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>317</v>
+        <v>194</v>
       </c>
       <c r="M18" s="7">
         <v>226</v>
@@ -4479,13 +4455,13 @@
         <v>246015</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,7 +4517,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4560,7 +4536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A27C07-CEA1-4206-80CF-BAD1C1734E1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC882793-B837-453C-82F0-106FEBEA10F5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4577,7 +4553,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4684,13 +4660,13 @@
         <v>489196</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>1277</v>
@@ -4699,13 +4675,13 @@
         <v>740892</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>1906</v>
@@ -4714,13 +4690,13 @@
         <v>1230087</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4711,13 @@
         <v>31364</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -4750,13 +4726,13 @@
         <v>64551</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>140</v>
@@ -4765,13 +4741,13 @@
         <v>95915</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4762,13 @@
         <v>16322</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>340</v>
+        <v>213</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -4801,10 +4777,10 @@
         <v>17323</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>66</v>
@@ -4816,13 +4792,13 @@
         <v>33645</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4866,13 @@
         <v>1979377</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H8" s="7">
         <v>2661</v>
@@ -4905,13 +4881,13 @@
         <v>2053566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="M8" s="7">
         <v>4485</v>
@@ -4920,13 +4896,13 @@
         <v>4032944</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4917,13 @@
         <v>145407</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H9" s="7">
         <v>199</v>
@@ -4956,13 +4932,13 @@
         <v>148603</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -4971,13 +4947,13 @@
         <v>294009</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4968,13 @@
         <v>28272</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -5007,13 +4983,13 @@
         <v>41019</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -5022,13 +4998,13 @@
         <v>69291</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5072,13 @@
         <v>595259</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="H12" s="7">
         <v>863</v>
@@ -5111,13 +5087,13 @@
         <v>616705</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="M12" s="7">
         <v>1464</v>
@@ -5126,13 +5102,13 @@
         <v>1211963</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5123,13 @@
         <v>55180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
@@ -5162,13 +5138,13 @@
         <v>70877</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
@@ -5177,13 +5153,13 @@
         <v>126057</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5174,13 @@
         <v>19835</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -5213,13 +5189,13 @@
         <v>21803</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -5228,13 +5204,13 @@
         <v>41637</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5278,13 @@
         <v>3063830</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>4801</v>
@@ -5317,13 +5293,13 @@
         <v>3411163</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>7855</v>
@@ -5332,13 +5308,13 @@
         <v>6474994</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5329,13 @@
         <v>231950</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
         <v>399</v>
@@ -5368,13 +5344,13 @@
         <v>284031</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M17" s="7">
         <v>638</v>
@@ -5383,13 +5359,13 @@
         <v>515981</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,13 +5380,13 @@
         <v>64429</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H18" s="7">
         <v>111</v>
@@ -5419,13 +5395,13 @@
         <v>80144</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>169</v>
@@ -5434,13 +5410,13 @@
         <v>144574</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,7 +5472,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ED837EF-B2A4-4390-B126-3E3B46B7F23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF922721-8548-4DB6-9708-2CFBEDD3945F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D45FB8B-ADDD-4C49-8D73-98E666DF926C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1E4971D-30E0-49D8-86A3-9FC053A74E70}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="410">
   <si>
     <t>Población según si en el barrio donde vive la contaminación es elevada en 2007 (Tasa respuesta: 99,35%)</t>
   </si>
@@ -77,1189 +77,1198 @@
     <t>82,83%</t>
   </si>
   <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
     <t>80,31%</t>
   </si>
   <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,18%)</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
     <t>85,03%</t>
   </si>
   <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>4,37%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,18%)</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
     <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A42759-9B89-47B5-A5C8-4690344ABC5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF645FB-A270-4A18-8EFA-FA65E8EC8B49}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1792,7 +1801,7 @@
         <v>858</v>
       </c>
       <c r="D4" s="7">
-        <v>850951</v>
+        <v>850950</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1945,7 +1954,7 @@
         <v>1033</v>
       </c>
       <c r="D7" s="7">
-        <v>1027326</v>
+        <v>1027325</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1975,7 +1984,7 @@
         <v>2319</v>
       </c>
       <c r="N7" s="7">
-        <v>2337307</v>
+        <v>2337308</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2291,10 +2300,10 @@
         <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,13 +2318,13 @@
         <v>19666</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -2327,10 +2336,10 @@
         <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -2339,13 +2348,13 @@
         <v>34057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2422,13 @@
         <v>2684860</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>2703</v>
@@ -2428,13 +2437,13 @@
         <v>2757525</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>5335</v>
@@ -2443,13 +2452,13 @@
         <v>5442386</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,13 +2473,13 @@
         <v>475385</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>483</v>
@@ -2479,13 +2488,13 @@
         <v>505726</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>952</v>
@@ -2494,13 +2503,13 @@
         <v>981111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2524,13 @@
         <v>89789</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -2530,13 +2539,13 @@
         <v>98197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>182</v>
@@ -2545,13 +2554,13 @@
         <v>187986</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,7 +2616,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2626,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275EFAE9-37A9-4CBA-A73B-E91E59D41F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51279552-4130-4953-AB10-754D33B95694}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2643,7 +2652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2750,28 +2759,28 @@
         <v>873774</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>1092</v>
       </c>
       <c r="I4" s="7">
-        <v>1174447</v>
+        <v>1174446</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>1906</v>
@@ -2780,13 +2789,13 @@
         <v>2048220</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2810,13 @@
         <v>75286</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>113</v>
@@ -2816,13 +2825,13 @@
         <v>118707</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>182</v>
@@ -2831,13 +2840,13 @@
         <v>193993</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2861,13 @@
         <v>22525</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -2867,13 +2876,13 @@
         <v>25318</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -2882,13 +2891,13 @@
         <v>47843</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,7 +2924,7 @@
         <v>1228</v>
       </c>
       <c r="I7" s="7">
-        <v>1318472</v>
+        <v>1318471</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2956,13 +2965,13 @@
         <v>1687975</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>1399</v>
@@ -2971,13 +2980,13 @@
         <v>1502447</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>2998</v>
@@ -2986,13 +2995,13 @@
         <v>3190422</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3016,13 @@
         <v>218103</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H9" s="7">
         <v>183</v>
@@ -3022,13 +3031,13 @@
         <v>196379</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M9" s="7">
         <v>388</v>
@@ -3037,13 +3046,13 @@
         <v>414482</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3067,13 @@
         <v>40230</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -3073,13 +3082,13 @@
         <v>37267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -3088,13 +3097,13 @@
         <v>77497</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3171,13 @@
         <v>413999</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H12" s="7">
         <v>351</v>
@@ -3177,13 +3186,13 @@
         <v>388264</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M12" s="7">
         <v>729</v>
@@ -3192,13 +3201,13 @@
         <v>802263</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,13 +3222,13 @@
         <v>47126</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -3228,13 +3237,13 @@
         <v>52824</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -3243,13 +3252,13 @@
         <v>99950</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3273,13 @@
         <v>15868</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -3279,13 +3288,13 @@
         <v>11118</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -3294,13 +3303,13 @@
         <v>26987</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3377,13 @@
         <v>2975748</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H16" s="7">
         <v>2842</v>
@@ -3383,13 +3392,13 @@
         <v>3065157</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>5633</v>
@@ -3398,13 +3407,13 @@
         <v>6040905</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3428,13 @@
         <v>340515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>340</v>
@@ -3434,13 +3443,13 @@
         <v>367910</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>658</v>
@@ -3449,13 +3458,13 @@
         <v>708425</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3479,13 @@
         <v>78623</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H18" s="7">
         <v>67</v>
@@ -3485,13 +3494,13 @@
         <v>73704</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -3500,13 +3509,13 @@
         <v>152327</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,7 +3571,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3581,7 +3590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF91C8E-6A20-41A9-ACB2-85A2589DC860}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71EA9A1-B645-4398-9ED9-9DCF26376998}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3598,7 +3607,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3705,13 +3714,13 @@
         <v>647209</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>749</v>
@@ -3720,13 +3729,13 @@
         <v>833112</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>1402</v>
@@ -3735,13 +3744,13 @@
         <v>1480320</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3765,13 @@
         <v>74094</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -3771,13 +3780,13 @@
         <v>113537</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>178</v>
@@ -3786,13 +3795,13 @@
         <v>187630</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3816,13 @@
         <v>26893</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -3822,13 +3831,13 @@
         <v>39192</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M6" s="7">
         <v>60</v>
@@ -3837,13 +3846,13 @@
         <v>66085</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,13 +3920,13 @@
         <v>1746093</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>1585</v>
@@ -3926,13 +3935,13 @@
         <v>1645740</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>3232</v>
@@ -3941,13 +3950,13 @@
         <v>3391833</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3971,13 @@
         <v>253106</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>108</v>
+        <v>263</v>
       </c>
       <c r="H9" s="7">
         <v>236</v>
@@ -3977,13 +3986,13 @@
         <v>248875</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>254</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="M9" s="7">
         <v>470</v>
@@ -3992,13 +4001,13 @@
         <v>501981</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4022,13 @@
         <v>63531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>73</v>
@@ -4028,13 +4037,13 @@
         <v>77163</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>131</v>
@@ -4043,13 +4052,13 @@
         <v>140694</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4126,13 @@
         <v>444660</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="H12" s="7">
         <v>436</v>
@@ -4132,13 +4141,13 @@
         <v>453754</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="M12" s="7">
         <v>844</v>
@@ -4147,13 +4156,13 @@
         <v>898413</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4177,13 @@
         <v>75396</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -4183,13 +4192,13 @@
         <v>69861</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -4198,13 +4207,13 @@
         <v>145257</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4228,13 @@
         <v>19094</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -4234,13 +4243,13 @@
         <v>20142</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>34</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -4249,13 +4258,13 @@
         <v>39236</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4332,13 @@
         <v>2837962</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>2770</v>
@@ -4338,28 +4347,28 @@
         <v>2932605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>5478</v>
       </c>
       <c r="N16" s="7">
-        <v>5770567</v>
+        <v>5770566</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,13 +4383,13 @@
         <v>402596</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>402</v>
@@ -4389,13 +4398,13 @@
         <v>432272</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>783</v>
@@ -4404,13 +4413,13 @@
         <v>834868</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4434,13 @@
         <v>109518</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H18" s="7">
         <v>127</v>
@@ -4440,13 +4449,13 @@
         <v>136497</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="M18" s="7">
         <v>226</v>
@@ -4455,13 +4464,13 @@
         <v>246015</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,7 +4512,7 @@
         <v>6487</v>
       </c>
       <c r="N19" s="7">
-        <v>6851450</v>
+        <v>6851449</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4517,7 +4526,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4536,7 +4545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC882793-B837-453C-82F0-106FEBEA10F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89B24D1-76EB-43F1-B1A1-D8931F87B1F2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4553,7 +4562,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4660,13 +4669,13 @@
         <v>489196</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>1277</v>
@@ -4675,13 +4684,13 @@
         <v>740892</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>1906</v>
@@ -4690,13 +4699,13 @@
         <v>1230087</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4720,13 @@
         <v>31364</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -4726,13 +4735,13 @@
         <v>64551</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>140</v>
@@ -4741,13 +4750,13 @@
         <v>95915</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4771,13 @@
         <v>16322</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -4777,13 +4786,13 @@
         <v>17323</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>334</v>
+        <v>143</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>66</v>
+        <v>335</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -4792,13 +4801,13 @@
         <v>33645</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>336</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4875,13 @@
         <v>1979377</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>2661</v>
@@ -4881,13 +4890,13 @@
         <v>2053566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>4485</v>
@@ -4896,13 +4905,13 @@
         <v>4032944</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,10 +4926,10 @@
         <v>145407</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>348</v>
@@ -4950,10 +4959,10 @@
         <v>352</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>284</v>
+        <v>353</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4977,13 @@
         <v>28272</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -4983,13 +4992,13 @@
         <v>41019</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -4998,13 +5007,13 @@
         <v>69291</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>215</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5081,13 @@
         <v>595259</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H12" s="7">
         <v>863</v>
@@ -5087,13 +5096,13 @@
         <v>616705</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M12" s="7">
         <v>1464</v>
@@ -5102,13 +5111,13 @@
         <v>1211963</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5132,13 @@
         <v>55180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
@@ -5138,13 +5147,13 @@
         <v>70877</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
@@ -5153,13 +5162,13 @@
         <v>126057</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5183,13 @@
         <v>19835</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -5189,13 +5198,13 @@
         <v>21803</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>163</v>
+        <v>384</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -5204,13 +5213,13 @@
         <v>41637</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5287,13 @@
         <v>3063830</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>4801</v>
@@ -5293,28 +5302,28 @@
         <v>3411163</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>7855</v>
       </c>
       <c r="N16" s="7">
-        <v>6474994</v>
+        <v>6474993</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5338,13 @@
         <v>231950</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>399</v>
@@ -5344,13 +5353,13 @@
         <v>284031</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>638</v>
@@ -5359,13 +5368,13 @@
         <v>515981</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5389,13 @@
         <v>64429</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>334</v>
+        <v>405</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>400</v>
+        <v>64</v>
       </c>
       <c r="H18" s="7">
         <v>111</v>
@@ -5395,13 +5404,13 @@
         <v>80144</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>403</v>
+        <v>222</v>
       </c>
       <c r="M18" s="7">
         <v>169</v>
@@ -5410,13 +5419,13 @@
         <v>144574</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>406</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,7 +5467,7 @@
         <v>8662</v>
       </c>
       <c r="N19" s="7">
-        <v>7135549</v>
+        <v>7135548</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5472,7 +5481,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF922721-8548-4DB6-9708-2CFBEDD3945F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF45113E-31DA-4E4C-9585-B67AAF90D672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1E4971D-30E0-49D8-86A3-9FC053A74E70}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F46CC4B2-D096-4C15-9948-3F6635FD33EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="415">
   <si>
     <t>Población según si en el barrio donde vive la contaminación es elevada en 2007 (Tasa respuesta: 99,35%)</t>
   </si>
@@ -995,280 +995,295 @@
     <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
   </si>
   <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>7,57%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
   </si>
 </sst>
 </file>
@@ -1680,7 +1695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF645FB-A270-4A18-8EFA-FA65E8EC8B49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DEE6E4-2C3A-42A1-B091-230080A3B3CC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1984,7 +1999,7 @@
         <v>2319</v>
       </c>
       <c r="N7" s="7">
-        <v>2337308</v>
+        <v>2337307</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2572,7 +2587,7 @@
         <v>3189</v>
       </c>
       <c r="D19" s="7">
-        <v>3250034</v>
+        <v>3250035</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2635,7 +2650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51279552-4130-4953-AB10-754D33B95694}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD850781-1BDE-492D-B736-DDE05FCAEC13}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3590,7 +3605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71EA9A1-B645-4398-9ED9-9DCF26376998}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E51002D-A3EF-404B-B6B7-E225C1188F51}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3998,7 +4013,7 @@
         <v>470</v>
       </c>
       <c r="N9" s="7">
-        <v>501981</v>
+        <v>501980</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>266</v>
@@ -4100,7 +4115,7 @@
         <v>3833</v>
       </c>
       <c r="N11" s="7">
-        <v>4034508</v>
+        <v>4034507</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4545,7 +4560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89B24D1-76EB-43F1-B1A1-D8931F87B1F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE82889-2996-484A-85A9-AE65CFACF647}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4666,7 +4681,7 @@
         <v>629</v>
       </c>
       <c r="D4" s="7">
-        <v>489196</v>
+        <v>465502</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>318</v>
@@ -4681,7 +4696,7 @@
         <v>1277</v>
       </c>
       <c r="I4" s="7">
-        <v>740892</v>
+        <v>669380</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>321</v>
@@ -4696,7 +4711,7 @@
         <v>1906</v>
       </c>
       <c r="N4" s="7">
-        <v>1230087</v>
+        <v>1134882</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>324</v>
@@ -4717,7 +4732,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="7">
-        <v>31364</v>
+        <v>29202</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>327</v>
@@ -4732,7 +4747,7 @@
         <v>100</v>
       </c>
       <c r="I5" s="7">
-        <v>64551</v>
+        <v>58381</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>237</v>
@@ -4747,7 +4762,7 @@
         <v>140</v>
       </c>
       <c r="N5" s="7">
-        <v>95915</v>
+        <v>87582</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>332</v>
@@ -4768,46 +4783,46 @@
         <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>16322</v>
+        <v>15672</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>335</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>199</v>
+        <v>336</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>272</v>
+        <v>337</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>17323</v>
+        <v>15893</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>33645</v>
+        <v>31564</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>341</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,7 +4834,7 @@
         <v>687</v>
       </c>
       <c r="D7" s="7">
-        <v>536882</v>
+        <v>510376</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4834,7 +4849,7 @@
         <v>1406</v>
       </c>
       <c r="I7" s="7">
-        <v>822765</v>
+        <v>743653</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4849,7 +4864,7 @@
         <v>2093</v>
       </c>
       <c r="N7" s="7">
-        <v>1359647</v>
+        <v>1254029</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4872,46 +4887,46 @@
         <v>1824</v>
       </c>
       <c r="D8" s="7">
-        <v>1979377</v>
+        <v>2113503</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>2661</v>
       </c>
       <c r="I8" s="7">
-        <v>2053566</v>
+        <v>2060135</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>4485</v>
       </c>
       <c r="N8" s="7">
-        <v>4032944</v>
+        <v>4173638</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,46 +4938,46 @@
         <v>141</v>
       </c>
       <c r="D9" s="7">
-        <v>145407</v>
+        <v>138797</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>294</v>
+        <v>353</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H9" s="7">
         <v>199</v>
       </c>
       <c r="I9" s="7">
-        <v>148603</v>
+        <v>134307</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
       </c>
       <c r="N9" s="7">
-        <v>294009</v>
+        <v>273103</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,46 +4989,46 @@
         <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>28272</v>
+        <v>28818</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>41019</v>
+        <v>37569</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
       </c>
       <c r="N10" s="7">
-        <v>69291</v>
+        <v>66387</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>143</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,7 +5040,7 @@
         <v>1986</v>
       </c>
       <c r="D11" s="7">
-        <v>2153056</v>
+        <v>2281117</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5040,7 +5055,7 @@
         <v>2909</v>
       </c>
       <c r="I11" s="7">
-        <v>2243188</v>
+        <v>2232011</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5055,7 +5070,7 @@
         <v>4895</v>
       </c>
       <c r="N11" s="7">
-        <v>4396244</v>
+        <v>4513128</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5078,46 +5093,46 @@
         <v>601</v>
       </c>
       <c r="D12" s="7">
-        <v>595259</v>
+        <v>572229</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H12" s="7">
         <v>863</v>
       </c>
       <c r="I12" s="7">
-        <v>616705</v>
+        <v>571353</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="M12" s="7">
         <v>1464</v>
       </c>
       <c r="N12" s="7">
-        <v>1211963</v>
+        <v>1143582</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5144,13 @@
         <v>58</v>
       </c>
       <c r="D13" s="7">
-        <v>55180</v>
+        <v>52577</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>190</v>
@@ -5144,31 +5159,31 @@
         <v>100</v>
       </c>
       <c r="I13" s="7">
-        <v>70877</v>
+        <v>64886</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
       </c>
       <c r="N13" s="7">
-        <v>126057</v>
+        <v>117463</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,46 +5195,46 @@
         <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>19835</v>
+        <v>19250</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
       </c>
       <c r="I14" s="7">
-        <v>21803</v>
+        <v>20070</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
       </c>
       <c r="N14" s="7">
-        <v>41637</v>
+        <v>39320</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,7 +5246,7 @@
         <v>678</v>
       </c>
       <c r="D15" s="7">
-        <v>670273</v>
+        <v>644056</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5246,7 +5261,7 @@
         <v>996</v>
       </c>
       <c r="I15" s="7">
-        <v>709385</v>
+        <v>656309</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5261,7 +5276,7 @@
         <v>1674</v>
       </c>
       <c r="N15" s="7">
-        <v>1379658</v>
+        <v>1300365</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5284,46 +5299,46 @@
         <v>3054</v>
       </c>
       <c r="D16" s="7">
-        <v>3063830</v>
+        <v>3151234</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>4801</v>
       </c>
       <c r="I16" s="7">
-        <v>3411163</v>
+        <v>3300868</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>7855</v>
       </c>
       <c r="N16" s="7">
-        <v>6474993</v>
+        <v>6452103</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,46 +5350,46 @@
         <v>239</v>
       </c>
       <c r="D17" s="7">
-        <v>231950</v>
+        <v>220576</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>399</v>
       </c>
       <c r="I17" s="7">
-        <v>284031</v>
+        <v>257573</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>638</v>
       </c>
       <c r="N17" s="7">
-        <v>515981</v>
+        <v>478149</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,46 +5401,46 @@
         <v>58</v>
       </c>
       <c r="D18" s="7">
-        <v>64429</v>
+        <v>63740</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>145</v>
+        <v>336</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>64</v>
+        <v>410</v>
       </c>
       <c r="H18" s="7">
         <v>111</v>
       </c>
       <c r="I18" s="7">
-        <v>80144</v>
+        <v>73532</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>406</v>
+        <v>61</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>222</v>
+        <v>412</v>
       </c>
       <c r="M18" s="7">
         <v>169</v>
       </c>
       <c r="N18" s="7">
-        <v>144574</v>
+        <v>137272</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,7 +5452,7 @@
         <v>3351</v>
       </c>
       <c r="D19" s="7">
-        <v>3360210</v>
+        <v>3435550</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5452,7 +5467,7 @@
         <v>5311</v>
       </c>
       <c r="I19" s="7">
-        <v>3775338</v>
+        <v>3631973</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5467,7 +5482,7 @@
         <v>8662</v>
       </c>
       <c r="N19" s="7">
-        <v>7135548</v>
+        <v>7067523</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
